--- a/configTools/Luban/ConfigRoot/Datas/guide.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17655" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="guide" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="第1版-已废弃" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="美术需求表" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="guide" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第1版-已废弃" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="美术需求表" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'guide'!$A$4:$T$105</definedName>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3075,12 +3075,12 @@
   </sheetData>
   <autoFilter ref="A4:T105"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4232,7 +4232,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 

--- a/configTools/Luban/ConfigRoot/Datas/guide.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowHeight="17655" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="guide" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="第1版-已废弃" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="美术需求表" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="guide" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="第1版-已废弃" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="美术需求表" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'guide'!$A$4:$T$105</definedName>

--- a/configTools/Luban/ConfigRoot/Datas/guide.xlsx
+++ b/configTools/Luban/ConfigRoot/Datas/guide.xlsx
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3075,12 +3075,12 @@
   </sheetData>
   <autoFilter ref="A4:T105"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4232,7 +4232,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
